--- a/baseline_model/data/demand_3.xlsx
+++ b/baseline_model/data/demand_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC39D9B-A29C-44FB-9380-0CC084477322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDECCA-3428-4488-B089-7E743D86D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,19 +421,19 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,44 +468,284 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>344</v>
+      </c>
+      <c r="C2" s="1">
+        <v>341</v>
+      </c>
+      <c r="D2" s="1">
+        <v>343</v>
+      </c>
+      <c r="E2" s="1">
+        <v>350</v>
+      </c>
+      <c r="F2" s="1">
+        <v>389</v>
+      </c>
+      <c r="G2" s="1">
+        <v>225</v>
+      </c>
+      <c r="H2" s="1">
+        <v>341</v>
+      </c>
+      <c r="I2" s="1">
+        <v>201</v>
+      </c>
+      <c r="J2" s="1">
+        <v>241</v>
+      </c>
+      <c r="K2" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>211</v>
+      </c>
+      <c r="C3" s="1">
+        <v>316</v>
+      </c>
+      <c r="D3" s="1">
+        <v>216</v>
+      </c>
+      <c r="E3" s="1">
+        <v>394</v>
+      </c>
+      <c r="F3" s="1">
+        <v>228</v>
+      </c>
+      <c r="G3" s="1">
+        <v>322</v>
+      </c>
+      <c r="H3" s="1">
+        <v>329</v>
+      </c>
+      <c r="I3" s="1">
+        <v>388</v>
+      </c>
+      <c r="J3" s="1">
+        <v>312</v>
+      </c>
+      <c r="K3" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>275</v>
+      </c>
+      <c r="C4" s="1">
+        <v>299</v>
+      </c>
+      <c r="D4" s="1">
+        <v>307</v>
+      </c>
+      <c r="E4" s="1">
+        <v>293</v>
+      </c>
+      <c r="F4" s="1">
+        <v>263</v>
+      </c>
+      <c r="G4" s="1">
+        <v>329</v>
+      </c>
+      <c r="H4" s="1">
+        <v>262</v>
+      </c>
+      <c r="I4" s="1">
+        <v>384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>222</v>
+      </c>
+      <c r="K4" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>336</v>
+      </c>
+      <c r="C5" s="1">
+        <v>347</v>
+      </c>
+      <c r="D5" s="1">
+        <v>307</v>
+      </c>
+      <c r="E5" s="1">
+        <v>280</v>
+      </c>
+      <c r="F5" s="1">
+        <v>380</v>
+      </c>
+      <c r="G5" s="1">
+        <v>318</v>
+      </c>
+      <c r="H5" s="1">
+        <v>326</v>
+      </c>
+      <c r="I5" s="1">
+        <v>366</v>
+      </c>
+      <c r="J5" s="1">
+        <v>274</v>
+      </c>
+      <c r="K5" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>221</v>
+      </c>
+      <c r="C6" s="1">
+        <v>341</v>
+      </c>
+      <c r="D6" s="1">
+        <v>260</v>
+      </c>
+      <c r="E6" s="1">
+        <v>256</v>
+      </c>
+      <c r="F6" s="1">
+        <v>358</v>
+      </c>
+      <c r="G6" s="1">
+        <v>284</v>
+      </c>
+      <c r="H6" s="1">
+        <v>218</v>
+      </c>
+      <c r="I6" s="1">
+        <v>292</v>
+      </c>
+      <c r="J6" s="1">
+        <v>265</v>
+      </c>
+      <c r="K6" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1">
+        <v>317</v>
+      </c>
+      <c r="D7" s="1">
+        <v>352</v>
+      </c>
+      <c r="E7" s="1">
+        <v>361</v>
+      </c>
+      <c r="F7" s="1">
+        <v>360</v>
+      </c>
+      <c r="G7" s="1">
+        <v>255</v>
+      </c>
+      <c r="H7" s="1">
+        <v>326</v>
+      </c>
+      <c r="I7" s="1">
+        <v>313</v>
+      </c>
+      <c r="J7" s="1">
+        <v>272</v>
+      </c>
+      <c r="K7" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>392</v>
+      </c>
+      <c r="C8" s="1">
+        <v>247</v>
+      </c>
+      <c r="D8" s="1">
+        <v>230</v>
+      </c>
+      <c r="E8" s="1">
+        <v>226</v>
+      </c>
+      <c r="F8" s="1">
+        <v>324</v>
+      </c>
+      <c r="G8" s="1">
+        <v>381</v>
+      </c>
+      <c r="H8" s="1">
+        <v>309</v>
+      </c>
+      <c r="I8" s="1">
+        <v>335</v>
+      </c>
+      <c r="J8" s="1">
+        <v>363</v>
+      </c>
+      <c r="K8" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>329</v>
+      </c>
+      <c r="C9" s="1">
+        <v>258</v>
+      </c>
+      <c r="D9" s="1">
+        <v>302</v>
+      </c>
+      <c r="E9" s="1">
+        <v>276</v>
+      </c>
+      <c r="F9" s="1">
+        <v>360</v>
+      </c>
+      <c r="G9" s="1">
+        <v>371</v>
+      </c>
+      <c r="H9" s="1">
+        <v>276</v>
+      </c>
+      <c r="I9" s="1">
+        <v>212</v>
+      </c>
+      <c r="J9" s="1">
+        <v>236</v>
+      </c>
+      <c r="K9" s="1">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
